--- a/Deliverables/tabulation.xlsx
+++ b/Deliverables/tabulation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eins\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eins\Documents\GitHub\Thesis-Collab\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D579A453-E73C-442B-A9A9-F73BA83A5C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DFCC0F-EAA6-4389-8C94-168FF4A41FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="1" xr2:uid="{52061C28-1649-4A5F-9EAE-AC34DE550A31}"/>
   </bookViews>
@@ -545,9 +545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C65EF3-1D9A-443D-B50A-9CA0CE16F8F3}">
   <dimension ref="A1:CX26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B28" sqref="B28"/>
+      <selection pane="topRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,9 +977,12 @@
       <c r="B3">
         <v>4</v>
       </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
       <c r="CX3" s="10">
         <f>COUNT(B3:CW3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:102" x14ac:dyDescent="0.25">
@@ -989,9 +992,12 @@
       <c r="B4">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
       <c r="CX4" s="10">
         <f t="shared" ref="CX4:CX26" si="0">COUNT(B4:CW4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:102" x14ac:dyDescent="0.25">
@@ -1001,9 +1007,12 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
       <c r="CX5" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:102" x14ac:dyDescent="0.25">
@@ -1013,9 +1022,12 @@
       <c r="B6">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
       <c r="CX6" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:102" x14ac:dyDescent="0.25">
@@ -1131,9 +1143,12 @@
       <c r="B8">
         <v>4</v>
       </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
       <c r="CX8" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:102" x14ac:dyDescent="0.25">
@@ -1143,9 +1158,12 @@
       <c r="B9">
         <v>4</v>
       </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
       <c r="CX9" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:102" x14ac:dyDescent="0.25">
@@ -1155,9 +1173,12 @@
       <c r="B10">
         <v>4</v>
       </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
       <c r="CX10" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:102" x14ac:dyDescent="0.25">
@@ -1276,9 +1297,12 @@
       <c r="B12">
         <v>4</v>
       </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
       <c r="CX12" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:102" x14ac:dyDescent="0.25">
@@ -1288,9 +1312,12 @@
       <c r="B13">
         <v>4</v>
       </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
       <c r="CX13" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:102" x14ac:dyDescent="0.25">
@@ -1300,9 +1327,12 @@
       <c r="B14">
         <v>4</v>
       </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
       <c r="CX14" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:102" x14ac:dyDescent="0.25">
@@ -1418,9 +1448,12 @@
       <c r="B16">
         <v>4</v>
       </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
       <c r="CX16" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:102" x14ac:dyDescent="0.25">
@@ -1430,9 +1463,12 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
       <c r="CX17" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:102" x14ac:dyDescent="0.25">
@@ -1548,9 +1584,12 @@
       <c r="B19">
         <v>4</v>
       </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
       <c r="CX19" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:102" x14ac:dyDescent="0.25">
@@ -1560,9 +1599,12 @@
       <c r="B20">
         <v>4</v>
       </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
       <c r="CX20" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:102" x14ac:dyDescent="0.25">
@@ -1572,9 +1614,12 @@
       <c r="B21">
         <v>4</v>
       </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
       <c r="CX21" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:102" x14ac:dyDescent="0.25">
@@ -1690,9 +1735,12 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
       <c r="CX23" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:102" x14ac:dyDescent="0.25">
@@ -1702,9 +1750,12 @@
       <c r="B24">
         <v>4</v>
       </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
       <c r="CX24" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:102" x14ac:dyDescent="0.25">
@@ -1714,9 +1765,12 @@
       <c r="B25">
         <v>4</v>
       </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
       <c r="CX25" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:102" x14ac:dyDescent="0.25">
@@ -1726,9 +1780,12 @@
       <c r="B26">
         <v>4</v>
       </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
       <c r="CX26" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1741,13 +1798,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020F1837-D004-4091-AE06-6138F7EE6C9D}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1793,8 +1851,8 @@
         <v>4</v>
       </c>
       <c r="I2" s="12" t="str">
-        <f>IF(H2&gt;=4.21,"Excellent",IF(H2&gt;=3.41,"Very Good",IF(H2&gt;=2.61,"Good",IF(H2&gt;=1.81,"Fair","Poor"))))</f>
-        <v>Very Good</v>
+        <f>IF(H2&gt;=3.26,"Acceptable",IF(H2&gt;=2.51,"Slightly Acceptable",IF(H2&gt;=1.76,"Slightly Unacceptable","Poor")))</f>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1807,7 +1865,7 @@
       </c>
       <c r="C3">
         <f>COUNTIF(Functionality1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <f>COUNTIF(Functionality1,3)</f>
@@ -1822,16 +1880,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUM(B3:F3)</f>
-        <v>1</v>
+        <f>SUM(C3:F3)</f>
+        <v>2</v>
       </c>
       <c r="H3">
         <f>(B3*$B$1+C3*$C$1+D3*$D$1+E3*$E$1+F3*$F$1)/G3</f>
         <v>4</v>
       </c>
       <c r="I3" s="12" t="str">
-        <f t="shared" ref="I3:I33" si="0">IF(H3&gt;=4.21,"Excellent",IF(H3&gt;=3.41,"Very Good",IF(H3&gt;=2.61,"Good",IF(H3&gt;=1.81,"Fair","Poor"))))</f>
-        <v>Very Good</v>
+        <f t="shared" ref="I3:I33" si="0">IF(H3&gt;=3.26,"Acceptable",IF(H3&gt;=2.51,"Slightly Acceptable",IF(H3&gt;=1.76,"Slightly Unacceptable","Poor")))</f>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1844,7 +1902,7 @@
       </c>
       <c r="C4">
         <f>COUNTIF(Functionality2,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <f>COUNTIF(Functionality2,3)</f>
@@ -1859,8 +1917,8 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G31" si="1">SUM(B4:F4)</f>
-        <v>1</v>
+        <f t="shared" ref="G4:G6" si="1">SUM(C4:F4)</f>
+        <v>2</v>
       </c>
       <c r="H4">
         <f>(B4*$B$1+C4*$C$1+D4*$D$1+E4*$E$1+F4*$F$1)/G4</f>
@@ -1868,7 +1926,7 @@
       </c>
       <c r="I4" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1881,7 +1939,7 @@
       </c>
       <c r="C5">
         <f>COUNTIF(Functionality3,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f>COUNTIF(Functionality3,3)</f>
@@ -1897,7 +1955,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <f>(B5*$B$1+C5*$C$1+D5*$D$1+E5*$E$1+F5*$F$1)/G5</f>
@@ -1905,7 +1963,7 @@
       </c>
       <c r="I5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1918,7 +1976,7 @@
       </c>
       <c r="C6">
         <f>COUNTIF(Functionality4,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <f>COUNTIF(Functionality4,3)</f>
@@ -1934,7 +1992,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <f>(B6*$B$1+C6*$C$1+D6*$D$1+E6*$E$1+F6*$F$1)/G6</f>
@@ -1942,15 +2000,12 @@
       </c>
       <c r="I6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="I7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Poor</v>
-      </c>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -1968,7 +2023,7 @@
       </c>
       <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1981,7 +2036,7 @@
       </c>
       <c r="C9">
         <f>COUNTIF(Reliability1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <f>COUNTIF(Reliability1,3)</f>
@@ -1996,8 +2051,8 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(C9:F9)</f>
+        <v>2</v>
       </c>
       <c r="H9">
         <f>(B9*$B$1+C9*$C$1+D9*$D$1+E9*$E$1+F9*$F$1)/G9</f>
@@ -2005,7 +2060,7 @@
       </c>
       <c r="I9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2018,7 +2073,7 @@
       </c>
       <c r="C10">
         <f>COUNTIF(Reliability2,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <f>COUNTIF(Reliability2,3)</f>
@@ -2033,16 +2088,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B10:F10)</f>
+        <v>2</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="H10:H11" si="2">(B10*$B$1+C10*$C$1+D10*$D$1+E10*$E$1+F10*$F$1)/G10</f>
+        <f>(B10*$B$1+C10*$C$1+D10*$D$1+E10*$E$1+F10*$F$1)/G10</f>
         <v>4</v>
       </c>
       <c r="I10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2055,7 +2110,7 @@
       </c>
       <c r="C11">
         <f>COUNTIF(Reliability3,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <f>COUNTIF(Reliability3,3)</f>
@@ -2070,24 +2125,21 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B11:F11)</f>
+        <v>2</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f>(B11*$B$1+C11*$C$1+D11*$D$1+E11*$E$1+F11*$F$1)/G11</f>
         <v>4</v>
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="I12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Poor</v>
-      </c>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -2105,7 +2157,7 @@
       </c>
       <c r="I13" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2118,7 +2170,7 @@
       </c>
       <c r="C14">
         <f>COUNTIF(Usability1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <f>COUNTIF(Usability1,3)</f>
@@ -2133,16 +2185,16 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(C14:F14)</f>
+        <v>2</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H31" si="3">(B14*$B$1+C14*$C$1+D14*$D$1+E14*$E$1+F14*$F$1)/G14</f>
+        <f>(B14*$B$1+C14*$C$1+D14*$D$1+E14*$E$1+F14*$F$1)/G14</f>
         <v>4</v>
       </c>
       <c r="I14" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2155,7 +2207,7 @@
       </c>
       <c r="C15">
         <f>COUNTIF(Usability2,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <f>COUNTIF(Usability2,3)</f>
@@ -2170,16 +2222,16 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="G15:G31" si="2">SUM(C15:F15)</f>
+        <v>2</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f>(B15*$B$1+C15*$C$1+D15*$D$1+E15*$E$1+F15*$F$1)/G15</f>
         <v>4</v>
       </c>
       <c r="I15" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2192,7 +2244,7 @@
       </c>
       <c r="C16">
         <f>COUNTIF(Usability3,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <f>COUNTIF(Usability3,3)</f>
@@ -2207,24 +2259,21 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
+        <f>(B16*$B$1+C16*$C$1+D16*$D$1+E16*$E$1+F16*$F$1)/G16</f>
         <v>4</v>
       </c>
       <c r="I16" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="I17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Poor</v>
-      </c>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -2242,7 +2291,7 @@
       </c>
       <c r="I18" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2255,7 +2304,7 @@
       </c>
       <c r="C19">
         <f>COUNTIF(Efficiency1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <f>COUNTIF(Efficiency1,3)</f>
@@ -2270,16 +2319,16 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(C19:F19)</f>
+        <v>2</v>
       </c>
       <c r="H19">
-        <f t="shared" si="3"/>
+        <f>(B19*$B$1+C19*$C$1+D19*$D$1+E19*$E$1+F19*$F$1)/G19</f>
         <v>4</v>
       </c>
       <c r="I19" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2292,7 +2341,7 @@
       </c>
       <c r="C20">
         <f>COUNTIF(Efficiency2,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <f>COUNTIF(Efficiency2,3)</f>
@@ -2307,24 +2356,21 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(C20:F20)</f>
+        <v>2</v>
       </c>
       <c r="H20">
-        <f t="shared" si="3"/>
+        <f>(B20*$B$1+C20*$C$1+D20*$D$1+E20*$E$1+F20*$F$1)/G20</f>
         <v>4</v>
       </c>
       <c r="I20" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="I21" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Poor</v>
-      </c>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -2342,7 +2388,7 @@
       </c>
       <c r="I22" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2355,7 +2401,7 @@
       </c>
       <c r="C23">
         <f>COUNTIF(Maintainability1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <f>COUNTIF(Maintainability1,3)</f>
@@ -2370,16 +2416,16 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(C23:F23)</f>
+        <v>2</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
+        <f>(B23*$B$1+C23*$C$1+D23*$D$1+E23*$E$1+F23*$F$1)/G23</f>
         <v>4</v>
       </c>
       <c r="I23" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2392,7 +2438,7 @@
       </c>
       <c r="C24">
         <f>COUNTIF(Maintainability2,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <f>COUNTIF(Maintainability2,3)</f>
@@ -2407,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="G24:G25" si="3">SUM(C24:F24)</f>
+        <v>2</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f>(B24*$B$1+C24*$C$1+D24*$D$1+E24*$E$1+F24*$F$1)/G24</f>
         <v>4</v>
       </c>
       <c r="I24" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2429,7 +2475,7 @@
       </c>
       <c r="C25">
         <f>COUNTIF(Maintainability3,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <f>COUNTIF(Maintainability3,3)</f>
@@ -2444,24 +2490,21 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H25">
-        <f t="shared" si="3"/>
+        <f>(B25*$B$1+C25*$C$1+D25*$D$1+E25*$E$1+F25*$F$1)/G25</f>
         <v>4</v>
       </c>
       <c r="I25" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="I26" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Poor</v>
-      </c>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
@@ -2478,8 +2521,8 @@
         <v>4</v>
       </c>
       <c r="I27" s="12" t="str">
-        <f>IF(H27&gt;=4.21,"Excellent",IF(H27&gt;=3.41,"Very Good",IF(H27&gt;=2.61,"Good",IF(H27&gt;=1.81,"Fair","Poor"))))</f>
-        <v>Very Good</v>
+        <f t="shared" si="0"/>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2492,7 +2535,7 @@
       </c>
       <c r="C28">
         <f>COUNTIF(Portability1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <f>COUNTIF(Portability1,3)</f>
@@ -2507,16 +2550,16 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(C28:F28)</f>
+        <v>2</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
+        <f>(B28*$B$1+C28*$C$1+D28*$D$1+E28*$E$1+F28*$F$1)/G28</f>
         <v>4</v>
       </c>
       <c r="I28" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2529,7 +2572,7 @@
       </c>
       <c r="C29">
         <f>COUNTIF(Portability2,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <f>COUNTIF(Portability2,3)</f>
@@ -2544,16 +2587,16 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="G29:G31" si="4">SUM(C29:F29)</f>
+        <v>2</v>
       </c>
       <c r="H29">
-        <f t="shared" si="3"/>
+        <f>(B29*$B$1+C29*$C$1+D29*$D$1+E29*$E$1+F29*$F$1)/G29</f>
         <v>4</v>
       </c>
       <c r="I29" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2566,7 +2609,7 @@
       </c>
       <c r="C30">
         <f>COUNTIF(Portability3,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <f>COUNTIF(Portability3,3)</f>
@@ -2581,16 +2624,16 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="3"/>
+        <f>(B30*$B$1+C30*$C$1+D30*$D$1+E30*$E$1+F30*$F$1)/G30</f>
         <v>4</v>
       </c>
       <c r="I30" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2603,7 +2646,7 @@
       </c>
       <c r="C31">
         <f>COUNTIF(Portability4,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <f>COUNTIF(Portability4,3)</f>
@@ -2618,23 +2661,20 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H31">
-        <f t="shared" si="3"/>
+        <f>(B31*$B$1+C31*$C$1+D31*$D$1+E31*$E$1+F31*$F$1)/G31</f>
         <v>4</v>
       </c>
       <c r="I31" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I32" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Poor</v>
-      </c>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G33" s="11" t="s">
@@ -2646,7 +2686,7 @@
       </c>
       <c r="I33" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Very Good</v>
+        <v>Acceptable</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverables/tabulation.xlsx
+++ b/Deliverables/tabulation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eins\Documents\GitHub\Thesis-Collab\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DFCC0F-EAA6-4389-8C94-168FF4A41FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDB7E1B-652B-4C05-BCA2-065DE176CD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="1" xr2:uid="{52061C28-1649-4A5F-9EAE-AC34DE550A31}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>Functionality</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Conformance – System is compliant to portability standards.</t>
-  </si>
-  <si>
-    <t>Replaceability – Ease to exchange a system component within a specified environment.</t>
   </si>
   <si>
     <t>Total</t>
@@ -546,8 +543,8 @@
   <dimension ref="A1:CX26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C28" sqref="C28"/>
+      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BD25" sqref="BD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +858,7 @@
         <v>100</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:102" x14ac:dyDescent="0.25">
@@ -980,9 +977,168 @@
       <c r="C3">
         <v>4</v>
       </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
+      </c>
+      <c r="Y3">
+        <v>4</v>
+      </c>
+      <c r="Z3">
+        <v>4</v>
+      </c>
+      <c r="AA3">
+        <v>4</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
+        <v>4</v>
+      </c>
+      <c r="AD3">
+        <v>4</v>
+      </c>
+      <c r="AE3">
+        <v>4</v>
+      </c>
+      <c r="AF3">
+        <v>4</v>
+      </c>
+      <c r="AG3">
+        <v>4</v>
+      </c>
+      <c r="AH3">
+        <v>4</v>
+      </c>
+      <c r="AI3">
+        <v>4</v>
+      </c>
+      <c r="AJ3">
+        <v>4</v>
+      </c>
+      <c r="AK3">
+        <v>4</v>
+      </c>
+      <c r="AL3">
+        <v>4</v>
+      </c>
+      <c r="AM3">
+        <v>4</v>
+      </c>
+      <c r="AN3">
+        <v>4</v>
+      </c>
+      <c r="AO3">
+        <v>4</v>
+      </c>
+      <c r="AP3">
+        <v>4</v>
+      </c>
+      <c r="AQ3">
+        <v>3</v>
+      </c>
+      <c r="AR3">
+        <v>4</v>
+      </c>
+      <c r="AS3">
+        <v>4</v>
+      </c>
+      <c r="AT3">
+        <v>4</v>
+      </c>
+      <c r="AU3">
+        <v>4</v>
+      </c>
+      <c r="AV3">
+        <v>4</v>
+      </c>
+      <c r="AW3">
+        <v>3</v>
+      </c>
+      <c r="AX3">
+        <v>4</v>
+      </c>
+      <c r="AY3">
+        <v>4</v>
+      </c>
+      <c r="AZ3">
+        <v>4</v>
+      </c>
+      <c r="BA3">
+        <v>3</v>
+      </c>
+      <c r="BB3">
+        <v>3</v>
+      </c>
+      <c r="BC3">
+        <v>4</v>
+      </c>
+      <c r="BD3">
+        <v>4</v>
+      </c>
       <c r="CX3" s="10">
         <f>COUNT(B3:CW3)</f>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:102" x14ac:dyDescent="0.25">
@@ -995,9 +1151,168 @@
       <c r="C4">
         <v>4</v>
       </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>4</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>4</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <v>4</v>
+      </c>
+      <c r="AF4">
+        <v>3</v>
+      </c>
+      <c r="AG4">
+        <v>4</v>
+      </c>
+      <c r="AH4">
+        <v>4</v>
+      </c>
+      <c r="AI4">
+        <v>4</v>
+      </c>
+      <c r="AJ4">
+        <v>4</v>
+      </c>
+      <c r="AK4">
+        <v>4</v>
+      </c>
+      <c r="AL4">
+        <v>3</v>
+      </c>
+      <c r="AM4">
+        <v>4</v>
+      </c>
+      <c r="AN4">
+        <v>4</v>
+      </c>
+      <c r="AO4">
+        <v>4</v>
+      </c>
+      <c r="AP4">
+        <v>4</v>
+      </c>
+      <c r="AQ4">
+        <v>3</v>
+      </c>
+      <c r="AR4">
+        <v>3</v>
+      </c>
+      <c r="AS4">
+        <v>4</v>
+      </c>
+      <c r="AT4">
+        <v>4</v>
+      </c>
+      <c r="AU4">
+        <v>4</v>
+      </c>
+      <c r="AV4">
+        <v>4</v>
+      </c>
+      <c r="AW4">
+        <v>3</v>
+      </c>
+      <c r="AX4">
+        <v>4</v>
+      </c>
+      <c r="AY4">
+        <v>4</v>
+      </c>
+      <c r="AZ4">
+        <v>4</v>
+      </c>
+      <c r="BA4">
+        <v>3</v>
+      </c>
+      <c r="BB4">
+        <v>4</v>
+      </c>
+      <c r="BC4">
+        <v>3</v>
+      </c>
+      <c r="BD4">
+        <v>4</v>
+      </c>
       <c r="CX4" s="10">
         <f t="shared" ref="CX4:CX26" si="0">COUNT(B4:CW4)</f>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:102" x14ac:dyDescent="0.25">
@@ -1010,9 +1325,168 @@
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>4</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>4</v>
+      </c>
+      <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
+      <c r="AF5">
+        <v>4</v>
+      </c>
+      <c r="AG5">
+        <v>4</v>
+      </c>
+      <c r="AH5">
+        <v>4</v>
+      </c>
+      <c r="AI5">
+        <v>4</v>
+      </c>
+      <c r="AJ5">
+        <v>4</v>
+      </c>
+      <c r="AK5">
+        <v>4</v>
+      </c>
+      <c r="AL5">
+        <v>2</v>
+      </c>
+      <c r="AM5">
+        <v>4</v>
+      </c>
+      <c r="AN5">
+        <v>4</v>
+      </c>
+      <c r="AO5">
+        <v>3</v>
+      </c>
+      <c r="AP5">
+        <v>4</v>
+      </c>
+      <c r="AQ5">
+        <v>4</v>
+      </c>
+      <c r="AR5">
+        <v>4</v>
+      </c>
+      <c r="AS5">
+        <v>3</v>
+      </c>
+      <c r="AT5">
+        <v>4</v>
+      </c>
+      <c r="AU5">
+        <v>4</v>
+      </c>
+      <c r="AV5">
+        <v>4</v>
+      </c>
+      <c r="AW5">
+        <v>2</v>
+      </c>
+      <c r="AX5">
+        <v>4</v>
+      </c>
+      <c r="AY5">
+        <v>4</v>
+      </c>
+      <c r="AZ5">
+        <v>4</v>
+      </c>
+      <c r="BA5">
+        <v>3</v>
+      </c>
+      <c r="BB5">
+        <v>4</v>
+      </c>
+      <c r="BC5">
+        <v>4</v>
+      </c>
+      <c r="BD5">
+        <v>3</v>
+      </c>
       <c r="CX5" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:102" x14ac:dyDescent="0.25">
@@ -1025,9 +1499,168 @@
       <c r="C6">
         <v>4</v>
       </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <v>3</v>
+      </c>
+      <c r="AC6">
+        <v>3</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AE6">
+        <v>4</v>
+      </c>
+      <c r="AF6">
+        <v>3</v>
+      </c>
+      <c r="AG6">
+        <v>4</v>
+      </c>
+      <c r="AH6">
+        <v>4</v>
+      </c>
+      <c r="AI6">
+        <v>4</v>
+      </c>
+      <c r="AJ6">
+        <v>4</v>
+      </c>
+      <c r="AK6">
+        <v>4</v>
+      </c>
+      <c r="AL6">
+        <v>4</v>
+      </c>
+      <c r="AM6">
+        <v>4</v>
+      </c>
+      <c r="AN6">
+        <v>4</v>
+      </c>
+      <c r="AO6">
+        <v>3</v>
+      </c>
+      <c r="AP6">
+        <v>4</v>
+      </c>
+      <c r="AQ6">
+        <v>2</v>
+      </c>
+      <c r="AR6">
+        <v>2</v>
+      </c>
+      <c r="AS6">
+        <v>4</v>
+      </c>
+      <c r="AT6">
+        <v>4</v>
+      </c>
+      <c r="AU6">
+        <v>4</v>
+      </c>
+      <c r="AV6">
+        <v>4</v>
+      </c>
+      <c r="AW6">
+        <v>4</v>
+      </c>
+      <c r="AX6">
+        <v>4</v>
+      </c>
+      <c r="AY6">
+        <v>4</v>
+      </c>
+      <c r="AZ6">
+        <v>4</v>
+      </c>
+      <c r="BA6">
+        <v>3</v>
+      </c>
+      <c r="BB6">
+        <v>3</v>
+      </c>
+      <c r="BC6">
+        <v>4</v>
+      </c>
+      <c r="BD6">
+        <v>4</v>
+      </c>
       <c r="CX6" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:102" x14ac:dyDescent="0.25">
@@ -1146,9 +1779,168 @@
       <c r="C8">
         <v>4</v>
       </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <v>3</v>
+      </c>
+      <c r="AC8">
+        <v>4</v>
+      </c>
+      <c r="AD8">
+        <v>3</v>
+      </c>
+      <c r="AE8">
+        <v>4</v>
+      </c>
+      <c r="AF8">
+        <v>4</v>
+      </c>
+      <c r="AG8">
+        <v>4</v>
+      </c>
+      <c r="AH8">
+        <v>4</v>
+      </c>
+      <c r="AI8">
+        <v>4</v>
+      </c>
+      <c r="AJ8">
+        <v>3</v>
+      </c>
+      <c r="AK8">
+        <v>4</v>
+      </c>
+      <c r="AL8">
+        <v>4</v>
+      </c>
+      <c r="AM8">
+        <v>4</v>
+      </c>
+      <c r="AN8">
+        <v>3</v>
+      </c>
+      <c r="AO8">
+        <v>4</v>
+      </c>
+      <c r="AP8">
+        <v>4</v>
+      </c>
+      <c r="AQ8">
+        <v>2</v>
+      </c>
+      <c r="AR8">
+        <v>3</v>
+      </c>
+      <c r="AS8">
+        <v>4</v>
+      </c>
+      <c r="AT8">
+        <v>4</v>
+      </c>
+      <c r="AU8">
+        <v>4</v>
+      </c>
+      <c r="AV8">
+        <v>4</v>
+      </c>
+      <c r="AW8">
+        <v>2</v>
+      </c>
+      <c r="AX8">
+        <v>4</v>
+      </c>
+      <c r="AY8">
+        <v>3</v>
+      </c>
+      <c r="AZ8">
+        <v>4</v>
+      </c>
+      <c r="BA8">
+        <v>3</v>
+      </c>
+      <c r="BB8">
+        <v>3</v>
+      </c>
+      <c r="BC8">
+        <v>3</v>
+      </c>
+      <c r="BD8">
+        <v>4</v>
+      </c>
       <c r="CX8" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:102" x14ac:dyDescent="0.25">
@@ -1161,9 +1953,168 @@
       <c r="C9">
         <v>4</v>
       </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>4</v>
+      </c>
+      <c r="AA9">
+        <v>4</v>
+      </c>
+      <c r="AB9">
+        <v>3</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9">
+        <v>4</v>
+      </c>
+      <c r="AF9">
+        <v>3</v>
+      </c>
+      <c r="AG9">
+        <v>4</v>
+      </c>
+      <c r="AH9">
+        <v>4</v>
+      </c>
+      <c r="AI9">
+        <v>4</v>
+      </c>
+      <c r="AJ9">
+        <v>3</v>
+      </c>
+      <c r="AK9">
+        <v>4</v>
+      </c>
+      <c r="AL9">
+        <v>3</v>
+      </c>
+      <c r="AM9">
+        <v>4</v>
+      </c>
+      <c r="AN9">
+        <v>4</v>
+      </c>
+      <c r="AO9">
+        <v>4</v>
+      </c>
+      <c r="AP9">
+        <v>4</v>
+      </c>
+      <c r="AQ9">
+        <v>3</v>
+      </c>
+      <c r="AR9">
+        <v>3</v>
+      </c>
+      <c r="AS9">
+        <v>4</v>
+      </c>
+      <c r="AT9">
+        <v>4</v>
+      </c>
+      <c r="AU9">
+        <v>4</v>
+      </c>
+      <c r="AV9">
+        <v>4</v>
+      </c>
+      <c r="AW9">
+        <v>3</v>
+      </c>
+      <c r="AX9">
+        <v>4</v>
+      </c>
+      <c r="AY9">
+        <v>3</v>
+      </c>
+      <c r="AZ9">
+        <v>3</v>
+      </c>
+      <c r="BA9">
+        <v>3</v>
+      </c>
+      <c r="BB9">
+        <v>4</v>
+      </c>
+      <c r="BC9">
+        <v>3</v>
+      </c>
+      <c r="BD9">
+        <v>4</v>
+      </c>
       <c r="CX9" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:102" x14ac:dyDescent="0.25">
@@ -1176,9 +2127,168 @@
       <c r="C10">
         <v>4</v>
       </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>4</v>
+      </c>
+      <c r="Z10">
+        <v>4</v>
+      </c>
+      <c r="AA10">
+        <v>4</v>
+      </c>
+      <c r="AB10">
+        <v>3</v>
+      </c>
+      <c r="AC10">
+        <v>4</v>
+      </c>
+      <c r="AD10">
+        <v>4</v>
+      </c>
+      <c r="AE10">
+        <v>4</v>
+      </c>
+      <c r="AF10">
+        <v>4</v>
+      </c>
+      <c r="AG10">
+        <v>4</v>
+      </c>
+      <c r="AH10">
+        <v>4</v>
+      </c>
+      <c r="AI10">
+        <v>4</v>
+      </c>
+      <c r="AJ10">
+        <v>4</v>
+      </c>
+      <c r="AK10">
+        <v>4</v>
+      </c>
+      <c r="AL10">
+        <v>4</v>
+      </c>
+      <c r="AM10">
+        <v>4</v>
+      </c>
+      <c r="AN10">
+        <v>4</v>
+      </c>
+      <c r="AO10">
+        <v>3</v>
+      </c>
+      <c r="AP10">
+        <v>4</v>
+      </c>
+      <c r="AQ10">
+        <v>4</v>
+      </c>
+      <c r="AR10">
+        <v>3</v>
+      </c>
+      <c r="AS10">
+        <v>3</v>
+      </c>
+      <c r="AT10">
+        <v>4</v>
+      </c>
+      <c r="AU10">
+        <v>4</v>
+      </c>
+      <c r="AV10">
+        <v>4</v>
+      </c>
+      <c r="AW10">
+        <v>4</v>
+      </c>
+      <c r="AX10">
+        <v>4</v>
+      </c>
+      <c r="AY10">
+        <v>4</v>
+      </c>
+      <c r="AZ10">
+        <v>4</v>
+      </c>
+      <c r="BA10">
+        <v>3</v>
+      </c>
+      <c r="BB10">
+        <v>3</v>
+      </c>
+      <c r="BC10">
+        <v>3</v>
+      </c>
+      <c r="BD10">
+        <v>4</v>
+      </c>
       <c r="CX10" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:102" x14ac:dyDescent="0.25">
@@ -1300,9 +2410,168 @@
       <c r="C12">
         <v>4</v>
       </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <v>4</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>4</v>
+      </c>
+      <c r="Z12">
+        <v>4</v>
+      </c>
+      <c r="AA12">
+        <v>4</v>
+      </c>
+      <c r="AB12">
+        <v>4</v>
+      </c>
+      <c r="AC12">
+        <v>4</v>
+      </c>
+      <c r="AD12">
+        <v>4</v>
+      </c>
+      <c r="AE12">
+        <v>4</v>
+      </c>
+      <c r="AF12">
+        <v>4</v>
+      </c>
+      <c r="AG12">
+        <v>4</v>
+      </c>
+      <c r="AH12">
+        <v>4</v>
+      </c>
+      <c r="AI12">
+        <v>4</v>
+      </c>
+      <c r="AJ12">
+        <v>4</v>
+      </c>
+      <c r="AK12">
+        <v>4</v>
+      </c>
+      <c r="AL12">
+        <v>4</v>
+      </c>
+      <c r="AM12">
+        <v>4</v>
+      </c>
+      <c r="AN12">
+        <v>4</v>
+      </c>
+      <c r="AO12">
+        <v>4</v>
+      </c>
+      <c r="AP12">
+        <v>4</v>
+      </c>
+      <c r="AQ12">
+        <v>4</v>
+      </c>
+      <c r="AR12">
+        <v>4</v>
+      </c>
+      <c r="AS12">
+        <v>4</v>
+      </c>
+      <c r="AT12">
+        <v>4</v>
+      </c>
+      <c r="AU12">
+        <v>4</v>
+      </c>
+      <c r="AV12">
+        <v>4</v>
+      </c>
+      <c r="AW12">
+        <v>3</v>
+      </c>
+      <c r="AX12">
+        <v>4</v>
+      </c>
+      <c r="AY12">
+        <v>4</v>
+      </c>
+      <c r="AZ12">
+        <v>4</v>
+      </c>
+      <c r="BA12">
+        <v>3</v>
+      </c>
+      <c r="BB12">
+        <v>3</v>
+      </c>
+      <c r="BC12">
+        <v>3</v>
+      </c>
+      <c r="BD12">
+        <v>4</v>
+      </c>
       <c r="CX12" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:102" x14ac:dyDescent="0.25">
@@ -1313,11 +2582,170 @@
         <v>4</v>
       </c>
       <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>4</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>4</v>
+      </c>
+      <c r="Z13">
+        <v>4</v>
+      </c>
+      <c r="AA13">
+        <v>4</v>
+      </c>
+      <c r="AB13">
+        <v>4</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
+      <c r="AD13">
+        <v>4</v>
+      </c>
+      <c r="AE13">
+        <v>4</v>
+      </c>
+      <c r="AF13">
+        <v>4</v>
+      </c>
+      <c r="AG13">
+        <v>4</v>
+      </c>
+      <c r="AH13">
+        <v>4</v>
+      </c>
+      <c r="AI13">
+        <v>4</v>
+      </c>
+      <c r="AJ13">
+        <v>4</v>
+      </c>
+      <c r="AK13">
+        <v>4</v>
+      </c>
+      <c r="AL13">
+        <v>3</v>
+      </c>
+      <c r="AM13">
+        <v>4</v>
+      </c>
+      <c r="AN13">
+        <v>3</v>
+      </c>
+      <c r="AO13">
+        <v>4</v>
+      </c>
+      <c r="AP13">
+        <v>4</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>3</v>
+      </c>
+      <c r="AS13">
+        <v>3</v>
+      </c>
+      <c r="AT13">
+        <v>4</v>
+      </c>
+      <c r="AU13">
+        <v>4</v>
+      </c>
+      <c r="AV13">
+        <v>4</v>
+      </c>
+      <c r="AW13">
+        <v>3</v>
+      </c>
+      <c r="AX13">
+        <v>4</v>
+      </c>
+      <c r="AY13">
+        <v>4</v>
+      </c>
+      <c r="AZ13">
+        <v>4</v>
+      </c>
+      <c r="BA13">
+        <v>3</v>
+      </c>
+      <c r="BB13">
+        <v>4</v>
+      </c>
+      <c r="BC13">
+        <v>3</v>
+      </c>
+      <c r="BD13">
         <v>4</v>
       </c>
       <c r="CX13" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:102" x14ac:dyDescent="0.25">
@@ -1328,11 +2756,170 @@
         <v>4</v>
       </c>
       <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <v>4</v>
+      </c>
+      <c r="AA14">
+        <v>4</v>
+      </c>
+      <c r="AB14">
+        <v>4</v>
+      </c>
+      <c r="AC14">
+        <v>4</v>
+      </c>
+      <c r="AD14">
+        <v>4</v>
+      </c>
+      <c r="AE14">
+        <v>4</v>
+      </c>
+      <c r="AF14">
+        <v>4</v>
+      </c>
+      <c r="AG14">
+        <v>4</v>
+      </c>
+      <c r="AH14">
+        <v>4</v>
+      </c>
+      <c r="AI14">
+        <v>4</v>
+      </c>
+      <c r="AJ14">
+        <v>4</v>
+      </c>
+      <c r="AK14">
+        <v>4</v>
+      </c>
+      <c r="AL14">
+        <v>3</v>
+      </c>
+      <c r="AM14">
+        <v>4</v>
+      </c>
+      <c r="AN14">
+        <v>4</v>
+      </c>
+      <c r="AO14">
+        <v>4</v>
+      </c>
+      <c r="AP14">
+        <v>4</v>
+      </c>
+      <c r="AQ14">
+        <v>3</v>
+      </c>
+      <c r="AR14">
+        <v>4</v>
+      </c>
+      <c r="AS14">
+        <v>4</v>
+      </c>
+      <c r="AT14">
+        <v>4</v>
+      </c>
+      <c r="AU14">
+        <v>4</v>
+      </c>
+      <c r="AV14">
+        <v>4</v>
+      </c>
+      <c r="AW14">
+        <v>3</v>
+      </c>
+      <c r="AX14">
+        <v>4</v>
+      </c>
+      <c r="AY14">
+        <v>4</v>
+      </c>
+      <c r="AZ14">
+        <v>4</v>
+      </c>
+      <c r="BA14">
+        <v>3</v>
+      </c>
+      <c r="BB14">
+        <v>4</v>
+      </c>
+      <c r="BC14">
+        <v>4</v>
+      </c>
+      <c r="BD14">
         <v>4</v>
       </c>
       <c r="CX14" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:102" x14ac:dyDescent="0.25">
@@ -1451,9 +3038,168 @@
       <c r="C16">
         <v>4</v>
       </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+      <c r="V16">
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <v>4</v>
+      </c>
+      <c r="X16">
+        <v>4</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+      <c r="Z16">
+        <v>4</v>
+      </c>
+      <c r="AA16">
+        <v>4</v>
+      </c>
+      <c r="AB16">
+        <v>4</v>
+      </c>
+      <c r="AC16">
+        <v>4</v>
+      </c>
+      <c r="AD16">
+        <v>4</v>
+      </c>
+      <c r="AE16">
+        <v>4</v>
+      </c>
+      <c r="AF16">
+        <v>4</v>
+      </c>
+      <c r="AG16">
+        <v>4</v>
+      </c>
+      <c r="AH16">
+        <v>4</v>
+      </c>
+      <c r="AI16">
+        <v>4</v>
+      </c>
+      <c r="AJ16">
+        <v>4</v>
+      </c>
+      <c r="AK16">
+        <v>4</v>
+      </c>
+      <c r="AL16">
+        <v>4</v>
+      </c>
+      <c r="AM16">
+        <v>4</v>
+      </c>
+      <c r="AN16">
+        <v>4</v>
+      </c>
+      <c r="AO16">
+        <v>3</v>
+      </c>
+      <c r="AP16">
+        <v>4</v>
+      </c>
+      <c r="AQ16">
+        <v>4</v>
+      </c>
+      <c r="AR16">
+        <v>3</v>
+      </c>
+      <c r="AS16">
+        <v>4</v>
+      </c>
+      <c r="AT16">
+        <v>4</v>
+      </c>
+      <c r="AU16">
+        <v>4</v>
+      </c>
+      <c r="AV16">
+        <v>4</v>
+      </c>
+      <c r="AW16">
+        <v>3</v>
+      </c>
+      <c r="AX16">
+        <v>4</v>
+      </c>
+      <c r="AY16">
+        <v>4</v>
+      </c>
+      <c r="AZ16">
+        <v>4</v>
+      </c>
+      <c r="BA16">
+        <v>3</v>
+      </c>
+      <c r="BB16">
+        <v>4</v>
+      </c>
+      <c r="BC16">
+        <v>3</v>
+      </c>
+      <c r="BD16">
+        <v>3</v>
+      </c>
       <c r="CX16" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:102" x14ac:dyDescent="0.25">
@@ -1464,11 +3210,170 @@
         <v>4</v>
       </c>
       <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <v>4</v>
+      </c>
+      <c r="Z17">
+        <v>4</v>
+      </c>
+      <c r="AA17">
+        <v>4</v>
+      </c>
+      <c r="AB17">
+        <v>4</v>
+      </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
+      <c r="AD17">
+        <v>4</v>
+      </c>
+      <c r="AE17">
+        <v>4</v>
+      </c>
+      <c r="AF17">
+        <v>4</v>
+      </c>
+      <c r="AG17">
+        <v>4</v>
+      </c>
+      <c r="AH17">
+        <v>4</v>
+      </c>
+      <c r="AI17">
+        <v>4</v>
+      </c>
+      <c r="AJ17">
+        <v>4</v>
+      </c>
+      <c r="AK17">
+        <v>4</v>
+      </c>
+      <c r="AL17">
+        <v>3</v>
+      </c>
+      <c r="AM17">
+        <v>4</v>
+      </c>
+      <c r="AN17">
+        <v>4</v>
+      </c>
+      <c r="AO17">
+        <v>4</v>
+      </c>
+      <c r="AP17">
+        <v>4</v>
+      </c>
+      <c r="AQ17">
+        <v>4</v>
+      </c>
+      <c r="AR17">
+        <v>4</v>
+      </c>
+      <c r="AS17">
+        <v>3</v>
+      </c>
+      <c r="AT17">
+        <v>4</v>
+      </c>
+      <c r="AU17">
+        <v>4</v>
+      </c>
+      <c r="AV17">
+        <v>4</v>
+      </c>
+      <c r="AW17">
+        <v>3</v>
+      </c>
+      <c r="AX17">
+        <v>4</v>
+      </c>
+      <c r="AY17">
+        <v>3</v>
+      </c>
+      <c r="AZ17">
+        <v>4</v>
+      </c>
+      <c r="BA17">
+        <v>3</v>
+      </c>
+      <c r="BB17">
+        <v>3</v>
+      </c>
+      <c r="BC17">
+        <v>4</v>
+      </c>
+      <c r="BD17">
         <v>4</v>
       </c>
       <c r="CX17" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:102" x14ac:dyDescent="0.25">
@@ -1585,11 +3490,170 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>4</v>
+      </c>
+      <c r="X19">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>4</v>
+      </c>
+      <c r="Z19">
+        <v>4</v>
+      </c>
+      <c r="AA19">
+        <v>4</v>
+      </c>
+      <c r="AB19">
+        <v>4</v>
+      </c>
+      <c r="AC19">
+        <v>4</v>
+      </c>
+      <c r="AD19">
+        <v>4</v>
+      </c>
+      <c r="AE19">
+        <v>4</v>
+      </c>
+      <c r="AF19">
+        <v>4</v>
+      </c>
+      <c r="AG19">
+        <v>4</v>
+      </c>
+      <c r="AH19">
+        <v>4</v>
+      </c>
+      <c r="AI19">
+        <v>4</v>
+      </c>
+      <c r="AJ19">
+        <v>3</v>
+      </c>
+      <c r="AK19">
+        <v>4</v>
+      </c>
+      <c r="AL19">
+        <v>4</v>
+      </c>
+      <c r="AM19">
+        <v>4</v>
+      </c>
+      <c r="AN19">
+        <v>4</v>
+      </c>
+      <c r="AO19">
+        <v>4</v>
+      </c>
+      <c r="AP19">
+        <v>4</v>
+      </c>
+      <c r="AQ19">
+        <v>4</v>
+      </c>
+      <c r="AR19">
+        <v>3</v>
+      </c>
+      <c r="AS19">
+        <v>4</v>
+      </c>
+      <c r="AT19">
+        <v>4</v>
+      </c>
+      <c r="AU19">
+        <v>4</v>
+      </c>
+      <c r="AV19">
+        <v>4</v>
+      </c>
+      <c r="AW19">
+        <v>3</v>
+      </c>
+      <c r="AX19">
+        <v>4</v>
+      </c>
+      <c r="AY19">
+        <v>4</v>
+      </c>
+      <c r="AZ19">
+        <v>4</v>
+      </c>
+      <c r="BA19">
+        <v>3</v>
+      </c>
+      <c r="BB19">
+        <v>4</v>
+      </c>
+      <c r="BC19">
+        <v>4</v>
+      </c>
+      <c r="BD19">
+        <v>3</v>
       </c>
       <c r="CX19" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:102" x14ac:dyDescent="0.25">
@@ -1602,9 +3666,168 @@
       <c r="C20">
         <v>4</v>
       </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>4</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>4</v>
+      </c>
+      <c r="W20">
+        <v>4</v>
+      </c>
+      <c r="X20">
+        <v>4</v>
+      </c>
+      <c r="Y20">
+        <v>4</v>
+      </c>
+      <c r="Z20">
+        <v>4</v>
+      </c>
+      <c r="AA20">
+        <v>4</v>
+      </c>
+      <c r="AB20">
+        <v>4</v>
+      </c>
+      <c r="AC20">
+        <v>3</v>
+      </c>
+      <c r="AD20">
+        <v>2</v>
+      </c>
+      <c r="AE20">
+        <v>4</v>
+      </c>
+      <c r="AF20">
+        <v>4</v>
+      </c>
+      <c r="AG20">
+        <v>4</v>
+      </c>
+      <c r="AH20">
+        <v>4</v>
+      </c>
+      <c r="AI20">
+        <v>4</v>
+      </c>
+      <c r="AJ20">
+        <v>3</v>
+      </c>
+      <c r="AK20">
+        <v>4</v>
+      </c>
+      <c r="AL20">
+        <v>4</v>
+      </c>
+      <c r="AM20">
+        <v>4</v>
+      </c>
+      <c r="AN20">
+        <v>4</v>
+      </c>
+      <c r="AO20">
+        <v>3</v>
+      </c>
+      <c r="AP20">
+        <v>4</v>
+      </c>
+      <c r="AQ20">
+        <v>3</v>
+      </c>
+      <c r="AR20">
+        <v>4</v>
+      </c>
+      <c r="AS20">
+        <v>4</v>
+      </c>
+      <c r="AT20">
+        <v>4</v>
+      </c>
+      <c r="AU20">
+        <v>4</v>
+      </c>
+      <c r="AV20">
+        <v>4</v>
+      </c>
+      <c r="AW20">
+        <v>3</v>
+      </c>
+      <c r="AX20">
+        <v>4</v>
+      </c>
+      <c r="AY20">
+        <v>3</v>
+      </c>
+      <c r="AZ20">
+        <v>4</v>
+      </c>
+      <c r="BA20">
+        <v>3</v>
+      </c>
+      <c r="BB20">
+        <v>3</v>
+      </c>
+      <c r="BC20">
+        <v>3</v>
+      </c>
+      <c r="BD20">
+        <v>3</v>
+      </c>
       <c r="CX20" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:102" x14ac:dyDescent="0.25">
@@ -1615,11 +3838,170 @@
         <v>4</v>
       </c>
       <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>4</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>4</v>
+      </c>
+      <c r="X21">
+        <v>4</v>
+      </c>
+      <c r="Y21">
+        <v>4</v>
+      </c>
+      <c r="Z21">
+        <v>4</v>
+      </c>
+      <c r="AA21">
+        <v>4</v>
+      </c>
+      <c r="AB21">
+        <v>4</v>
+      </c>
+      <c r="AC21">
+        <v>4</v>
+      </c>
+      <c r="AD21">
+        <v>2</v>
+      </c>
+      <c r="AE21">
+        <v>4</v>
+      </c>
+      <c r="AF21">
+        <v>4</v>
+      </c>
+      <c r="AG21">
+        <v>4</v>
+      </c>
+      <c r="AH21">
+        <v>4</v>
+      </c>
+      <c r="AI21">
+        <v>4</v>
+      </c>
+      <c r="AJ21">
+        <v>3</v>
+      </c>
+      <c r="AK21">
+        <v>4</v>
+      </c>
+      <c r="AL21">
+        <v>3</v>
+      </c>
+      <c r="AM21">
+        <v>4</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
+        <v>4</v>
+      </c>
+      <c r="AQ21">
+        <v>2</v>
+      </c>
+      <c r="AR21">
+        <v>4</v>
+      </c>
+      <c r="AS21">
+        <v>3</v>
+      </c>
+      <c r="AT21">
+        <v>4</v>
+      </c>
+      <c r="AU21">
+        <v>4</v>
+      </c>
+      <c r="AV21">
+        <v>4</v>
+      </c>
+      <c r="AW21">
+        <v>3</v>
+      </c>
+      <c r="AX21">
+        <v>4</v>
+      </c>
+      <c r="AY21">
+        <v>3</v>
+      </c>
+      <c r="AZ21">
+        <v>4</v>
+      </c>
+      <c r="BA21">
+        <v>3</v>
+      </c>
+      <c r="BB21">
+        <v>4</v>
+      </c>
+      <c r="BC21">
+        <v>3</v>
+      </c>
+      <c r="BD21">
         <v>4</v>
       </c>
       <c r="CX21" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:102" x14ac:dyDescent="0.25">
@@ -1736,11 +4118,170 @@
         <v>4</v>
       </c>
       <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>4</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <v>4</v>
+      </c>
+      <c r="Z23">
+        <v>4</v>
+      </c>
+      <c r="AA23">
+        <v>4</v>
+      </c>
+      <c r="AB23">
+        <v>4</v>
+      </c>
+      <c r="AC23">
+        <v>4</v>
+      </c>
+      <c r="AD23">
+        <v>3</v>
+      </c>
+      <c r="AE23">
+        <v>4</v>
+      </c>
+      <c r="AF23">
+        <v>4</v>
+      </c>
+      <c r="AG23">
+        <v>4</v>
+      </c>
+      <c r="AH23">
+        <v>4</v>
+      </c>
+      <c r="AI23">
+        <v>4</v>
+      </c>
+      <c r="AJ23">
+        <v>4</v>
+      </c>
+      <c r="AK23">
+        <v>4</v>
+      </c>
+      <c r="AL23">
+        <v>4</v>
+      </c>
+      <c r="AM23">
+        <v>4</v>
+      </c>
+      <c r="AN23">
+        <v>4</v>
+      </c>
+      <c r="AO23">
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <v>4</v>
+      </c>
+      <c r="AQ23">
+        <v>3</v>
+      </c>
+      <c r="AR23">
+        <v>4</v>
+      </c>
+      <c r="AS23">
+        <v>4</v>
+      </c>
+      <c r="AT23">
+        <v>4</v>
+      </c>
+      <c r="AU23">
+        <v>4</v>
+      </c>
+      <c r="AV23">
+        <v>4</v>
+      </c>
+      <c r="AW23">
+        <v>4</v>
+      </c>
+      <c r="AX23">
+        <v>4</v>
+      </c>
+      <c r="AY23">
+        <v>3</v>
+      </c>
+      <c r="AZ23">
+        <v>4</v>
+      </c>
+      <c r="BA23">
+        <v>3</v>
+      </c>
+      <c r="BB23">
+        <v>3</v>
+      </c>
+      <c r="BC23">
+        <v>3</v>
+      </c>
+      <c r="BD23">
         <v>4</v>
       </c>
       <c r="CX23" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:102" x14ac:dyDescent="0.25">
@@ -1751,11 +4292,170 @@
         <v>4</v>
       </c>
       <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>4</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24">
+        <v>4</v>
+      </c>
+      <c r="Z24">
+        <v>4</v>
+      </c>
+      <c r="AA24">
+        <v>4</v>
+      </c>
+      <c r="AB24">
+        <v>4</v>
+      </c>
+      <c r="AC24">
+        <v>4</v>
+      </c>
+      <c r="AD24">
+        <v>4</v>
+      </c>
+      <c r="AE24">
+        <v>4</v>
+      </c>
+      <c r="AF24">
+        <v>4</v>
+      </c>
+      <c r="AG24">
+        <v>4</v>
+      </c>
+      <c r="AH24">
+        <v>4</v>
+      </c>
+      <c r="AI24">
+        <v>4</v>
+      </c>
+      <c r="AJ24">
+        <v>3</v>
+      </c>
+      <c r="AK24">
+        <v>4</v>
+      </c>
+      <c r="AL24">
+        <v>4</v>
+      </c>
+      <c r="AM24">
+        <v>4</v>
+      </c>
+      <c r="AN24">
+        <v>4</v>
+      </c>
+      <c r="AO24">
+        <v>3</v>
+      </c>
+      <c r="AP24">
+        <v>4</v>
+      </c>
+      <c r="AQ24">
+        <v>4</v>
+      </c>
+      <c r="AR24">
+        <v>3</v>
+      </c>
+      <c r="AS24">
+        <v>4</v>
+      </c>
+      <c r="AT24">
+        <v>4</v>
+      </c>
+      <c r="AU24">
+        <v>4</v>
+      </c>
+      <c r="AV24">
+        <v>4</v>
+      </c>
+      <c r="AW24">
+        <v>3</v>
+      </c>
+      <c r="AX24">
+        <v>4</v>
+      </c>
+      <c r="AY24">
+        <v>4</v>
+      </c>
+      <c r="AZ24">
+        <v>4</v>
+      </c>
+      <c r="BA24">
+        <v>3</v>
+      </c>
+      <c r="BB24">
+        <v>4</v>
+      </c>
+      <c r="BC24">
+        <v>4</v>
+      </c>
+      <c r="BD24">
         <v>4</v>
       </c>
       <c r="CX24" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:102" x14ac:dyDescent="0.25">
@@ -1768,24 +4468,175 @@
       <c r="C25">
         <v>4</v>
       </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+      <c r="U25">
+        <v>4</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>4</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <v>4</v>
+      </c>
+      <c r="Z25">
+        <v>4</v>
+      </c>
+      <c r="AA25">
+        <v>4</v>
+      </c>
+      <c r="AB25">
+        <v>4</v>
+      </c>
+      <c r="AC25">
+        <v>3</v>
+      </c>
+      <c r="AD25">
+        <v>3</v>
+      </c>
+      <c r="AE25">
+        <v>4</v>
+      </c>
+      <c r="AF25">
+        <v>4</v>
+      </c>
+      <c r="AG25">
+        <v>4</v>
+      </c>
+      <c r="AH25">
+        <v>4</v>
+      </c>
+      <c r="AI25">
+        <v>4</v>
+      </c>
+      <c r="AJ25">
+        <v>4</v>
+      </c>
+      <c r="AK25">
+        <v>4</v>
+      </c>
+      <c r="AL25">
+        <v>4</v>
+      </c>
+      <c r="AM25">
+        <v>4</v>
+      </c>
+      <c r="AN25">
+        <v>4</v>
+      </c>
+      <c r="AO25">
+        <v>4</v>
+      </c>
+      <c r="AP25">
+        <v>4</v>
+      </c>
+      <c r="AQ25">
+        <v>3</v>
+      </c>
+      <c r="AR25">
+        <v>4</v>
+      </c>
+      <c r="AS25">
+        <v>4</v>
+      </c>
+      <c r="AT25">
+        <v>4</v>
+      </c>
+      <c r="AU25">
+        <v>4</v>
+      </c>
+      <c r="AV25">
+        <v>4</v>
+      </c>
+      <c r="AW25">
+        <v>4</v>
+      </c>
+      <c r="AX25">
+        <v>4</v>
+      </c>
+      <c r="AY25">
+        <v>3</v>
+      </c>
+      <c r="AZ25">
+        <v>4</v>
+      </c>
+      <c r="BA25">
+        <v>3</v>
+      </c>
+      <c r="BB25">
+        <v>4</v>
+      </c>
+      <c r="BC25">
+        <v>4</v>
+      </c>
+      <c r="BD25">
+        <v>4</v>
+      </c>
       <c r="CX25" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
+      <c r="A26" s="3"/>
       <c r="CX26" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1798,8 +4649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020F1837-D004-4091-AE06-6138F7EE6C9D}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,13 +4678,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1848,7 +4699,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="11">
         <f>AVERAGE(H3:H6)</f>
-        <v>4</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="I2" s="12" t="str">
         <f>IF(H2&gt;=3.26,"Acceptable",IF(H2&gt;=2.51,"Slightly Acceptable",IF(H2&gt;=1.76,"Slightly Unacceptable","Poor")))</f>
@@ -1865,11 +4716,11 @@
       </c>
       <c r="C3">
         <f>COUNTIF(Functionality1,4)</f>
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <f>COUNTIF(Functionality1,3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <f>COUNTIF(Functionality1,2)</f>
@@ -1881,14 +4732,14 @@
       </c>
       <c r="G3">
         <f>SUM(C3:F3)</f>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <f>(B3*$B$1+C3*$C$1+D3*$D$1+E3*$E$1+F3*$F$1)/G3</f>
-        <v>4</v>
+        <v>3.9090909090909092</v>
       </c>
       <c r="I3" s="12" t="str">
-        <f t="shared" ref="I3:I33" si="0">IF(H3&gt;=3.26,"Acceptable",IF(H3&gt;=2.51,"Slightly Acceptable",IF(H3&gt;=1.76,"Slightly Unacceptable","Poor")))</f>
+        <f t="shared" ref="I3:I31" si="0">IF(H3&gt;=3.26,"Acceptable",IF(H3&gt;=2.51,"Slightly Acceptable",IF(H3&gt;=1.76,"Slightly Unacceptable","Poor")))</f>
         <v>Acceptable</v>
       </c>
     </row>
@@ -1902,11 +4753,11 @@
       </c>
       <c r="C4">
         <f>COUNTIF(Functionality2,4)</f>
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <f>COUNTIF(Functionality2,3)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <f>COUNTIF(Functionality2,2)</f>
@@ -1918,11 +4769,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G6" si="1">SUM(C4:F4)</f>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H4">
         <f>(B4*$B$1+C4*$C$1+D4*$D$1+E4*$E$1+F4*$F$1)/G4</f>
-        <v>4</v>
+        <v>3.7818181818181817</v>
       </c>
       <c r="I4" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1939,15 +4790,15 @@
       </c>
       <c r="C5">
         <f>COUNTIF(Functionality3,4)</f>
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <f>COUNTIF(Functionality3,3)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <f>COUNTIF(Functionality3,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <f>COUNTIF(Functionality3,1)</f>
@@ -1955,11 +4806,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <f>(B5*$B$1+C5*$C$1+D5*$D$1+E5*$E$1+F5*$F$1)/G5</f>
-        <v>4</v>
+        <v>3.7454545454545456</v>
       </c>
       <c r="I5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1976,15 +4827,15 @@
       </c>
       <c r="C6">
         <f>COUNTIF(Functionality4,4)</f>
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <f>COUNTIF(Functionality4,3)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <f>COUNTIF(Functionality4,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <f>COUNTIF(Functionality4,1)</f>
@@ -1992,11 +4843,11 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <f>(B6*$B$1+C6*$C$1+D6*$D$1+E6*$E$1+F6*$F$1)/G6</f>
-        <v>4</v>
+        <v>3.7636363636363637</v>
       </c>
       <c r="I6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2019,7 +4870,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="11">
         <f>AVERAGE(H9:H11)</f>
-        <v>4</v>
+        <v>3.684848484848485</v>
       </c>
       <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2036,15 +4887,15 @@
       </c>
       <c r="C9">
         <f>COUNTIF(Reliability1,4)</f>
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <f>COUNTIF(Reliability1,3)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <f>COUNTIF(Reliability1,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <f>COUNTIF(Reliability1,1)</f>
@@ -2052,11 +4903,11 @@
       </c>
       <c r="G9">
         <f>SUM(C9:F9)</f>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H9">
         <f>(B9*$B$1+C9*$C$1+D9*$D$1+E9*$E$1+F9*$F$1)/G9</f>
-        <v>4</v>
+        <v>3.5636363636363635</v>
       </c>
       <c r="I9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2073,11 +4924,11 @@
       </c>
       <c r="C10">
         <f>COUNTIF(Reliability2,4)</f>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <f>COUNTIF(Reliability2,3)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <f>COUNTIF(Reliability2,2)</f>
@@ -2089,11 +4940,11 @@
       </c>
       <c r="G10">
         <f>SUM(B10:F10)</f>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H10">
         <f>(B10*$B$1+C10*$C$1+D10*$D$1+E10*$E$1+F10*$F$1)/G10</f>
-        <v>4</v>
+        <v>3.7272727272727271</v>
       </c>
       <c r="I10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2110,11 +4961,11 @@
       </c>
       <c r="C11">
         <f>COUNTIF(Reliability3,4)</f>
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <f>COUNTIF(Reliability3,3)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <f>COUNTIF(Reliability3,2)</f>
@@ -2126,11 +4977,11 @@
       </c>
       <c r="G11">
         <f>SUM(B11:F11)</f>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H11">
         <f>(B11*$B$1+C11*$C$1+D11*$D$1+E11*$E$1+F11*$F$1)/G11</f>
-        <v>4</v>
+        <v>3.7636363636363637</v>
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2153,7 +5004,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="11">
         <f>AVERAGE(H14:H16)</f>
-        <v>4</v>
+        <v>3.8242424242424242</v>
       </c>
       <c r="I13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2170,11 +5021,11 @@
       </c>
       <c r="C14">
         <f>COUNTIF(Usability1,4)</f>
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <f>COUNTIF(Usability1,3)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <f>COUNTIF(Usability1,2)</f>
@@ -2186,11 +5037,11 @@
       </c>
       <c r="G14">
         <f>SUM(C14:F14)</f>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H14">
         <f>(B14*$B$1+C14*$C$1+D14*$D$1+E14*$E$1+F14*$F$1)/G14</f>
-        <v>4</v>
+        <v>3.8727272727272726</v>
       </c>
       <c r="I14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2207,11 +5058,11 @@
       </c>
       <c r="C15">
         <f>COUNTIF(Usability2,4)</f>
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <f>COUNTIF(Usability2,3)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <f>COUNTIF(Usability2,2)</f>
@@ -2222,12 +5073,12 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G31" si="2">SUM(C15:F15)</f>
-        <v>2</v>
+        <f t="shared" ref="G15:G16" si="2">SUM(C15:F15)</f>
+        <v>55</v>
       </c>
       <c r="H15">
         <f>(B15*$B$1+C15*$C$1+D15*$D$1+E15*$E$1+F15*$F$1)/G15</f>
-        <v>4</v>
+        <v>3.7636363636363637</v>
       </c>
       <c r="I15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2244,11 +5095,11 @@
       </c>
       <c r="C16">
         <f>COUNTIF(Usability3,4)</f>
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D16">
         <f>COUNTIF(Usability3,3)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <f>COUNTIF(Usability3,2)</f>
@@ -2260,11 +5111,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H16">
         <f>(B16*$B$1+C16*$C$1+D16*$D$1+E16*$E$1+F16*$F$1)/G16</f>
-        <v>4</v>
+        <v>3.8363636363636364</v>
       </c>
       <c r="I16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2287,7 +5138,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="11">
         <f>AVERAGE(H19:H20)</f>
-        <v>4</v>
+        <v>3.8363636363636364</v>
       </c>
       <c r="I18" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2304,11 +5155,11 @@
       </c>
       <c r="C19">
         <f>COUNTIF(Efficiency1,4)</f>
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <f>COUNTIF(Efficiency1,3)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <f>COUNTIF(Efficiency1,2)</f>
@@ -2320,11 +5171,11 @@
       </c>
       <c r="G19">
         <f>SUM(C19:F19)</f>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H19">
         <f>(B19*$B$1+C19*$C$1+D19*$D$1+E19*$E$1+F19*$F$1)/G19</f>
-        <v>4</v>
+        <v>3.8545454545454545</v>
       </c>
       <c r="I19" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2341,11 +5192,11 @@
       </c>
       <c r="C20">
         <f>COUNTIF(Efficiency2,4)</f>
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <f>COUNTIF(Efficiency2,3)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <f>COUNTIF(Efficiency2,2)</f>
@@ -2357,11 +5208,11 @@
       </c>
       <c r="G20">
         <f>SUM(C20:F20)</f>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H20">
         <f>(B20*$B$1+C20*$C$1+D20*$D$1+E20*$E$1+F20*$F$1)/G20</f>
-        <v>4</v>
+        <v>3.8181818181818183</v>
       </c>
       <c r="I20" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2384,7 +5235,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="11">
         <f>AVERAGE(H23:H25)</f>
-        <v>4</v>
+        <v>3.7333333333333329</v>
       </c>
       <c r="I22" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2401,11 +5252,11 @@
       </c>
       <c r="C23">
         <f>COUNTIF(Maintainability1,4)</f>
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D23">
         <f>COUNTIF(Maintainability1,3)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <f>COUNTIF(Maintainability1,2)</f>
@@ -2417,11 +5268,11 @@
       </c>
       <c r="G23">
         <f>SUM(C23:F23)</f>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H23">
         <f>(B23*$B$1+C23*$C$1+D23*$D$1+E23*$E$1+F23*$F$1)/G23</f>
-        <v>4</v>
+        <v>3.7818181818181817</v>
       </c>
       <c r="I23" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2438,15 +5289,15 @@
       </c>
       <c r="C24">
         <f>COUNTIF(Maintainability2,4)</f>
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <f>COUNTIF(Maintainability2,3)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <f>COUNTIF(Maintainability2,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <f>COUNTIF(Maintainability2,1)</f>
@@ -2454,11 +5305,11 @@
       </c>
       <c r="G24">
         <f t="shared" ref="G24:G25" si="3">SUM(C24:F24)</f>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H24">
         <f>(B24*$B$1+C24*$C$1+D24*$D$1+E24*$E$1+F24*$F$1)/G24</f>
-        <v>4</v>
+        <v>3.7454545454545456</v>
       </c>
       <c r="I24" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2475,15 +5326,15 @@
       </c>
       <c r="C25">
         <f>COUNTIF(Maintainability3,4)</f>
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <f>COUNTIF(Maintainability3,3)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <f>COUNTIF(Maintainability3,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <f>COUNTIF(Maintainability3,1)</f>
@@ -2491,11 +5342,11 @@
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H25">
         <f>(B25*$B$1+C25*$C$1+D25*$D$1+E25*$E$1+F25*$F$1)/G25</f>
-        <v>4</v>
+        <v>3.6727272727272728</v>
       </c>
       <c r="I25" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2518,7 +5369,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="11">
         <f>AVERAGE(H28:H31)</f>
-        <v>4</v>
+        <v>3.8242424242424242</v>
       </c>
       <c r="I27" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2535,11 +5386,11 @@
       </c>
       <c r="C28">
         <f>COUNTIF(Portability1,4)</f>
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D28">
         <f>COUNTIF(Portability1,3)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <f>COUNTIF(Portability1,2)</f>
@@ -2551,11 +5402,11 @@
       </c>
       <c r="G28">
         <f>SUM(C28:F28)</f>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H28">
         <f>(B28*$B$1+C28*$C$1+D28*$D$1+E28*$E$1+F28*$F$1)/G28</f>
-        <v>4</v>
+        <v>3.7454545454545456</v>
       </c>
       <c r="I28" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2572,11 +5423,11 @@
       </c>
       <c r="C29">
         <f>COUNTIF(Portability2,4)</f>
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D29">
         <f>COUNTIF(Portability2,3)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <f>COUNTIF(Portability2,2)</f>
@@ -2588,11 +5439,11 @@
       </c>
       <c r="G29">
         <f t="shared" ref="G29:G31" si="4">SUM(C29:F29)</f>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H29">
         <f>(B29*$B$1+C29*$C$1+D29*$D$1+E29*$E$1+F29*$F$1)/G29</f>
-        <v>4</v>
+        <v>3.8727272727272726</v>
       </c>
       <c r="I29" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2609,11 +5460,11 @@
       </c>
       <c r="C30">
         <f>COUNTIF(Portability3,4)</f>
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D30">
         <f>COUNTIF(Portability3,3)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <f>COUNTIF(Portability3,2)</f>
@@ -2625,11 +5476,11 @@
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H30">
         <f>(B30*$B$1+C30*$C$1+D30*$D$1+E30*$E$1+F30*$F$1)/G30</f>
-        <v>4</v>
+        <v>3.8545454545454545</v>
       </c>
       <c r="I30" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2637,55 +5488,22 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31">
-        <f>COUNTIF(Portability4,5)</f>
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <f>COUNTIF(Portability4,4)</f>
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <f>COUNTIF(Portability4,3)</f>
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f>COUNTIF(Portability4,2)</f>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f>COUNTIF(Portability4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <f>(B31*$B$1+C31*$C$1+D31*$D$1+E31*$E$1+F31*$F$1)/G31</f>
-        <v>4</v>
-      </c>
-      <c r="I31" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceptable</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G33" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H33" s="11">
         <f>AVERAGE(H27,H22,H18,H13,H8,H2)</f>
-        <v>4</v>
+        <v>3.783838383838384</v>
       </c>
       <c r="I33" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H33&gt;=3.26,"Acceptable",IF(H33&gt;=2.51,"Slightly Acceptable",IF(H33&gt;=1.76,"Slightly Unacceptable","Poor")))</f>
         <v>Acceptable</v>
       </c>
     </row>
